--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823340.1880631256</v>
+        <v>821452.6065467236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>160.4034471042925</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>142.6581012934775</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>20.24586684424288</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>123.2202590352922</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.5386589270121</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>247.8388676005147</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27.26618645491687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>43.8760689286055</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>4.55385834063818</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.4523652507641</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>8.546296656423092</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>56.74895840592255</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>130.1103494143064</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09316260949955</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>8.673753185735052</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>249.5670185273384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>207.9062233245126</v>
+        <v>22.32185503202419</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.3675597136121</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>207.2045317851311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>211.1266322694199</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>112.6185215999994</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>17.90786120994334</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>86.18652692092377</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522962</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
         <v>1363.553390680693</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2085.284562891219</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2085.284562891219</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.515907621104</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2446.806800512652</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3976778824716</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>229.3976778824716</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>81.48458430007847</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>535.6630640965725</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>535.6630640965725</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1273.280804219765</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1659.880644283887</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230959</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1367.491675189916</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1367.491675189916</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1078.363036403474</v>
       </c>
       <c r="V13" t="n">
-        <v>1252.814529479227</v>
+        <v>1078.363036403474</v>
       </c>
       <c r="W13" t="n">
-        <v>963.3973594422662</v>
+        <v>788.9458663665135</v>
       </c>
       <c r="X13" t="n">
-        <v>963.3973594422662</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.6047802987359</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.07980026545</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1155.294385054956</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>1155.294385054956</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>900.6098968490689</v>
       </c>
       <c r="W16" t="n">
-        <v>392.0201325405893</v>
+        <v>611.1927268121084</v>
       </c>
       <c r="X16" t="n">
-        <v>392.0201325405893</v>
+        <v>611.1927268121084</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>390.4001476685783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,25 +5501,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984387</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1288.909984371526</v>
+        <v>1365.293838804552</v>
       </c>
       <c r="V19" t="n">
-        <v>1034.225496165639</v>
+        <v>1365.293838804552</v>
       </c>
       <c r="W19" t="n">
-        <v>744.8083261286785</v>
+        <v>1365.293838804552</v>
       </c>
       <c r="X19" t="n">
-        <v>744.8083261286785</v>
+        <v>1137.304287906534</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.8083261286785</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V22" t="n">
-        <v>1000.490124917793</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>711.072954880832</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>711.072954880832</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.072954880832</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655741</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W25" t="n">
-        <v>741.8439190510085</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X25" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404654</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404654</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404654</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404654</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1185.240178049213</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1185.240178049213</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="V28" t="n">
-        <v>1185.240178049213</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W28" t="n">
-        <v>895.8230080122526</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="X28" t="n">
-        <v>667.8334571142352</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.0408779707051</v>
+        <v>213.9110074201011</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030887</v>
+        <v>750.8748194215254</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565528</v>
+        <v>637.6995017749892</v>
       </c>
       <c r="D31" t="n">
-        <v>357.888937725588</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>265.7367094245658</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>265.7367094245658</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1481.571032267147</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1282.647409342631</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818944</v>
+        <v>1048.991104587041</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>876.7624189703944</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030887</v>
+        <v>876.7624189703944</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,25 +6765,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7427,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,22 +7567,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525395</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103127</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>274.3657496970637</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>67.81046056929686</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>230.0444807143284</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.2470567978682</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>36.95597980925263</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>78.33112907406471</v>
+        <v>263.9154973665532</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,13 +24178,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>57.1800013447772</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>44.93311153869695</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>75.3963660671711</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>50.96659166316046</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>108.9290394583898</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.38245062487711</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>144.8475688490965</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1051654.326161303</v>
+        <v>1051654.326161302</v>
       </c>
     </row>
     <row r="12">
@@ -26323,19 +26323,19 @@
         <v>371477.6067508235</v>
       </c>
       <c r="F2" t="n">
+        <v>371477.6067508237</v>
+      </c>
+      <c r="G2" t="n">
         <v>371477.6067508235</v>
-      </c>
-      <c r="G2" t="n">
-        <v>371477.6067508236</v>
       </c>
       <c r="H2" t="n">
         <v>371477.6067508235</v>
       </c>
       <c r="I2" t="n">
+        <v>371477.6067508235</v>
+      </c>
+      <c r="J2" t="n">
         <v>371477.6067508236</v>
-      </c>
-      <c r="J2" t="n">
-        <v>371477.6067508237</v>
       </c>
       <c r="K2" t="n">
         <v>386481.0304780067</v>
@@ -26344,16 +26344,16 @@
         <v>389994.8406855348</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="N2" t="n">
         <v>389994.8406855348</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086666</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,25 +26482,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439607.0748436422</v>
+        <v>-439607.0748436421</v>
       </c>
       <c r="C6" t="n">
         <v>150360.8043709024</v>
@@ -26528,28 +26528,28 @@
         <v>150360.8043709024</v>
       </c>
       <c r="E6" t="n">
-        <v>-260715.4252962284</v>
+        <v>-260812.8844222004</v>
       </c>
       <c r="F6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546958</v>
       </c>
       <c r="G6" t="n">
-        <v>264444.6111806679</v>
+        <v>264347.1520546956</v>
       </c>
       <c r="H6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546956</v>
       </c>
       <c r="I6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546956</v>
       </c>
       <c r="J6" t="n">
-        <v>88021.39198807502</v>
+        <v>87923.93286210272</v>
       </c>
       <c r="K6" t="n">
-        <v>212479.9245093026</v>
+        <v>212461.4307713683</v>
       </c>
       <c r="L6" t="n">
-        <v>244472.3712018831</v>
+        <v>244472.3712018828</v>
       </c>
       <c r="M6" t="n">
         <v>120014.2627689125</v>
@@ -26558,10 +26558,10 @@
         <v>254815.2780027498</v>
       </c>
       <c r="O6" t="n">
-        <v>254815.2780027498</v>
+        <v>254815.2780027499</v>
       </c>
       <c r="P6" t="n">
-        <v>210652.6726999041</v>
+        <v>210652.672699904</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,25 +26750,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>90.8207204039968</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.5828674239355</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>126.1880958023263</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>163.3027393012988</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.19518273646844</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>101.4021011168983</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>118.1548615680144</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>168.2694700214134</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>360.7190334303694</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.7855734052895</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>203.5992422935958</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>161.8356949461722</v>
       </c>
     </row>
     <row r="11">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>481.4591646285885</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
